--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-topk-masking-0.2/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="129">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,211 +46,241 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
     <t>crap</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
+    <t>returned</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
+    <t>broke</t>
   </si>
   <si>
     <t>junk</t>
   </si>
   <si>
-    <t>thin</t>
+    <t>water</t>
+  </si>
+  <si>
+    <t>smaller</t>
+  </si>
+  <si>
+    <t>ripped</t>
+  </si>
+  <si>
+    <t>instead</t>
+  </si>
+  <si>
+    <t>okay</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>broken</t>
   </si>
   <si>
     <t>pool</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>water</t>
-  </si>
-  <si>
-    <t>smaller</t>
-  </si>
-  <si>
-    <t>ripped</t>
-  </si>
-  <si>
-    <t>instead</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
     <t>probably</t>
   </si>
   <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>tiny</t>
+    <t>guess</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>less</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>missing</t>
   </si>
   <si>
     <t>paint</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>cheap</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>apart</t>
-  </si>
-  <si>
-    <t>guess</t>
-  </si>
-  <si>
-    <t>un</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>difficult</t>
   </si>
   <si>
     <t>di</t>
   </si>
   <si>
+    <t>short</t>
+  </si>
+  <si>
     <t>half</t>
   </si>
   <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>missing</t>
+    <t>thought</t>
   </si>
   <si>
     <t>pay</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>tried</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>though</t>
   </si>
   <si>
     <t>sound</t>
   </si>
   <si>
-    <t>bad</t>
-  </si>
-  <si>
     <t>bit</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
-    <t>less</t>
-  </si>
-  <si>
-    <t>though</t>
+    <t>picture</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>price</t>
   </si>
   <si>
-    <t>item</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>could</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>back</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>product</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>pieces</t>
+  </si>
+  <si>
+    <t>put</t>
+  </si>
+  <si>
+    <t>used</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>expected</t>
+  </si>
+  <si>
+    <t>two</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
   <si>
     <t>box</t>
   </si>
   <si>
-    <t>used</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>pieces</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>make</t>
+    <t>way</t>
+  </si>
+  <si>
+    <t>use</t>
   </si>
   <si>
     <t>little</t>
   </si>
   <si>
-    <t>two</t>
-  </si>
-  <si>
     <t>buy</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>even</t>
+    <t>made</t>
   </si>
   <si>
     <t>one</t>
   </si>
   <si>
-    <t>made</t>
+    <t>get</t>
+  </si>
+  <si>
+    <t>much</t>
   </si>
   <si>
     <t>toy</t>
   </si>
   <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>much</t>
+    <t>bought</t>
   </si>
   <si>
     <t>negative</t>
@@ -259,18 +289,18 @@
     <t>wonderful</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>amazing</t>
   </si>
   <si>
+    <t>favorite</t>
+  </si>
+  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -280,97 +310,85 @@
     <t>classic</t>
   </si>
   <si>
-    <t>beautiful</t>
+    <t>thank</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>loves</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
-    <t>expansion</t>
+    <t>loved</t>
   </si>
   <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>loved</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
-    <t>thanks</t>
+    <t>friends</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>grandchildren</t>
   </si>
   <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
     <t>learn</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>highly</t>
+    <t>enjoyed</t>
+  </si>
+  <si>
+    <t>christmas</t>
   </si>
   <si>
     <t>enjoy</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>christmas</t>
+    <t>fun</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>enjoyed</t>
-  </si>
-  <si>
-    <t>ages</t>
+    <t>birthday</t>
+  </si>
+  <si>
+    <t>family</t>
   </si>
   <si>
     <t>book</t>
   </si>
   <si>
-    <t>family</t>
-  </si>
-  <si>
     <t>game</t>
   </si>
   <si>
+    <t>cute</t>
+  </si>
+  <si>
     <t>easy</t>
   </si>
   <si>
+    <t>playing</t>
+  </si>
+  <si>
     <t>nice</t>
   </si>
   <si>
-    <t>cute</t>
-  </si>
-  <si>
     <t>play</t>
-  </si>
-  <si>
-    <t>playing</t>
   </si>
   <si>
     <t>well</t>
@@ -740,7 +758,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q73"/>
+  <dimension ref="A1:Q83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -748,10 +766,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J1" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -809,13 +827,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -827,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="K3">
-        <v>0.8928571428571429</v>
+        <v>0.9107142857142857</v>
       </c>
       <c r="L3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -851,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -880,16 +898,16 @@
         <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="K4">
-        <v>0.8888888888888888</v>
+        <v>0.9076923076923077</v>
       </c>
       <c r="L4">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="M4">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -901,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -909,13 +927,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.765625</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D5">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -930,16 +948,16 @@
         <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="K5">
-        <v>0.85</v>
+        <v>0.8518518518518519</v>
       </c>
       <c r="L5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="M5">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -951,7 +969,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -959,13 +977,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7619047619047619</v>
+        <v>0.7473118279569892</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="D6">
-        <v>16</v>
+        <v>139</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -977,19 +995,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="K6">
-        <v>0.8461538461538461</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L6">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="M6">
-        <v>55</v>
+        <v>76</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1001,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1009,13 +1027,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.734375</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1027,19 +1045,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="K7">
-        <v>0.8064516129032258</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="M7">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1051,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1059,13 +1077,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6989247311827957</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C8">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1077,19 +1095,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="K8">
-        <v>0.765625</v>
+        <v>0.734375</v>
       </c>
       <c r="L8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="M8">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1101,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1109,13 +1127,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6909090909090909</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="C9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D9">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1127,10 +1145,10 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
       <c r="K9">
         <v>0.7083333333333334</v>
@@ -1180,16 +1198,16 @@
         <v>9</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="K10">
-        <v>0.660377358490566</v>
+        <v>0.6981132075471698</v>
       </c>
       <c r="L10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="M10">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1201,7 +1219,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1209,13 +1227,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6857142857142857</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="D11">
-        <v>24</v>
+        <v>97</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1227,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="K11">
-        <v>0.625</v>
+        <v>0.5797101449275363</v>
       </c>
       <c r="L11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1251,7 +1269,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>9</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1259,13 +1277,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6621621621621622</v>
+        <v>0.6359223300970874</v>
       </c>
       <c r="C12">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="D12">
-        <v>98</v>
+        <v>131</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1277,19 +1295,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="K12">
-        <v>0.5767575322812052</v>
+        <v>0.5652797704447633</v>
       </c>
       <c r="L12">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="M12">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1301,7 +1319,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1309,13 +1327,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6601941747572816</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C13">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="D13">
-        <v>136</v>
+        <v>34</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1327,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="K13">
-        <v>0.5507246376811594</v>
+        <v>0.5456431535269709</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>263</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1351,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>31</v>
+        <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1359,13 +1377,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6190476190476191</v>
+        <v>0.5952380952380952</v>
       </c>
       <c r="C14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1377,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K14">
-        <v>0.5124481327800829</v>
+        <v>0.4692370795734208</v>
       </c>
       <c r="L14">
-        <v>247</v>
+        <v>572</v>
       </c>
       <c r="M14">
-        <v>247</v>
+        <v>573</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1398,10 +1416,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>235</v>
+        <v>647</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1409,13 +1427,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6050420168067226</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C15">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D15">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1427,19 +1445,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="K15">
-        <v>0.4688524590163934</v>
+        <v>0.3975535168195719</v>
       </c>
       <c r="L15">
-        <v>572</v>
+        <v>130</v>
       </c>
       <c r="M15">
-        <v>572</v>
+        <v>130</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1451,7 +1469,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>648</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1459,13 +1477,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5925925925925926</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1477,19 +1495,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="K16">
-        <v>0.4042553191489361</v>
+        <v>0.3962264150943396</v>
       </c>
       <c r="L16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M16">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1501,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1509,13 +1527,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.5833333333333334</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1527,19 +1545,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="K17">
-        <v>0.3962264150943396</v>
+        <v>0.3855421686746988</v>
       </c>
       <c r="L17">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M17">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1551,7 +1569,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>32</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1559,13 +1577,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.5526315789473685</v>
+        <v>0.5370370370370371</v>
       </c>
       <c r="C18">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="D18">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1577,19 +1595,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="K18">
-        <v>0.3944954128440367</v>
+        <v>0.328042328042328</v>
       </c>
       <c r="L18">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="M18">
-        <v>129</v>
+        <v>62</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1601,7 +1619,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>198</v>
+        <v>127</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1609,13 +1627,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.5263157894736842</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1627,19 +1645,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="K19">
-        <v>0.3795180722891566</v>
+        <v>0.325</v>
       </c>
       <c r="L19">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="M19">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1651,7 +1669,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>103</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1659,13 +1677,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.5159420289855072</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C20">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D20">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1677,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="K20">
-        <v>0.3728813559322034</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="L20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1701,7 +1719,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1709,13 +1727,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.4857142857142857</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C21">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1727,31 +1745,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="K21">
-        <v>0.3583333333333333</v>
+        <v>0.3026315789473684</v>
       </c>
       <c r="L21">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="M21">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>77</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1759,13 +1777,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.4603174603174603</v>
+        <v>0.4857142857142857</v>
       </c>
       <c r="C22">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D22">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1777,19 +1795,19 @@
         <v>0</v>
       </c>
       <c r="H22">
+        <v>18</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="K22">
+        <v>0.2377622377622378</v>
+      </c>
+      <c r="L22">
         <v>34</v>
       </c>
-      <c r="J22" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22">
-        <v>0.3386243386243386</v>
-      </c>
-      <c r="L22">
-        <v>64</v>
-      </c>
       <c r="M22">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1801,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1809,13 +1827,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.4251968503937008</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="C23">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1827,19 +1845,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="K23">
-        <v>0.2727272727272727</v>
+        <v>0.234375</v>
       </c>
       <c r="L23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="M23">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1851,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>40</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1859,13 +1877,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.4216867469879518</v>
+        <v>0.462962962962963</v>
       </c>
       <c r="C24">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1877,19 +1895,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="K24">
-        <v>0.25</v>
+        <v>0.2301587301587301</v>
       </c>
       <c r="L24">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1901,7 +1919,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1909,13 +1927,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.4170616113744076</v>
+        <v>0.4502369668246445</v>
       </c>
       <c r="C25">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D25">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1927,19 +1945,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="K25">
-        <v>0.2237762237762238</v>
+        <v>0.21285140562249</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1951,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>111</v>
+        <v>196</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1959,13 +1977,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.4140625</v>
+        <v>0.4333333333333333</v>
       </c>
       <c r="C26">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1977,31 +1995,31 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>75</v>
+        <v>34</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="K26">
-        <v>0.2105263157894737</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="L26">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M26">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="N26">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O26">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>60</v>
+        <v>147</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2009,13 +2027,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.4</v>
+        <v>0.4173228346456693</v>
       </c>
       <c r="C27">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -2027,19 +2045,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>57</v>
+        <v>74</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K27">
-        <v>0.2096774193548387</v>
+        <v>0.1700262927256792</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -2051,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>147</v>
+        <v>947</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -2059,13 +2077,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.3888888888888889</v>
+        <v>0.4105263157894737</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D28">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2077,31 +2095,31 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="J28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K28">
+        <v>0.16</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>20</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q28">
         <v>105</v>
-      </c>
-      <c r="K28">
-        <v>0.2068965517241379</v>
-      </c>
-      <c r="L28">
-        <v>18</v>
-      </c>
-      <c r="M28">
-        <v>18</v>
-      </c>
-      <c r="N28">
-        <v>1</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q28">
-        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -2109,13 +2127,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.3720930232558139</v>
+        <v>0.4</v>
       </c>
       <c r="C29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2130,16 +2148,16 @@
         <v>27</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="K29">
-        <v>0.1927710843373494</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L29">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M29">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -2151,7 +2169,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>201</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2159,13 +2177,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.359375</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D30">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2177,19 +2195,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K30">
-        <v>0.176</v>
+        <v>0.1114206128133705</v>
       </c>
       <c r="L30">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M30">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2201,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>103</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2209,13 +2227,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.3518518518518519</v>
+        <v>0.3671875</v>
       </c>
       <c r="C31">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2227,19 +2245,19 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>35</v>
+        <v>81</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="K31">
-        <v>0.1735319894829097</v>
+        <v>0.1038961038961039</v>
       </c>
       <c r="L31">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="M31">
-        <v>198</v>
+        <v>16</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2251,7 +2269,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>943</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2259,13 +2277,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.3333333333333333</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="C32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2277,31 +2295,31 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="K32">
-        <v>0.1666666666666667</v>
+        <v>0.09421702404158544</v>
       </c>
       <c r="L32">
-        <v>21</v>
+        <v>145</v>
       </c>
       <c r="M32">
-        <v>21</v>
+        <v>147</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>105</v>
+        <v>1394</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2309,13 +2327,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3333333333333333</v>
+        <v>0.3595505617977528</v>
       </c>
       <c r="C33">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2327,31 +2345,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="K33">
-        <v>0.1282051282051282</v>
+        <v>0.0859375</v>
       </c>
       <c r="L33">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M33">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>102</v>
+        <v>234</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2359,13 +2377,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3174603174603174</v>
+        <v>0.359375</v>
       </c>
       <c r="C34">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2377,19 +2395,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="K34">
-        <v>0.09740259740259741</v>
+        <v>0.0855614973262032</v>
       </c>
       <c r="L34">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2401,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>139</v>
+        <v>342</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2409,13 +2427,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3168316831683168</v>
+        <v>0.3469387755102041</v>
       </c>
       <c r="C35">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D35">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2427,31 +2445,31 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>138</v>
+        <v>32</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="K35">
-        <v>0.09497206703910614</v>
+        <v>0.06481481481481481</v>
       </c>
       <c r="L35">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="M35">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="N35">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O35">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35">
-        <v>324</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2459,13 +2477,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3146067415730337</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C36">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D36">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2477,31 +2495,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>61</v>
+        <v>36</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="K36">
-        <v>0.08187134502923976</v>
+        <v>0.06228373702422145</v>
       </c>
       <c r="L36">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="M36">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="N36">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="O36">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P36" t="b">
         <v>1</v>
       </c>
       <c r="Q36">
-        <v>1413</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2509,13 +2527,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.2753623188405797</v>
+        <v>0.3069306930693069</v>
       </c>
       <c r="C37">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="D37">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -2527,31 +2545,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="K37">
-        <v>0.08021390374331551</v>
+        <v>0.04679144385026738</v>
       </c>
       <c r="L37">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="M37">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="N37">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37">
-        <v>344</v>
+        <v>713</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2559,13 +2577,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.2686567164179104</v>
+        <v>0.3015873015873016</v>
       </c>
       <c r="C38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D38">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2577,31 +2595,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="K38">
-        <v>0.07586206896551724</v>
+        <v>0.04092071611253197</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.76</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>268</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2609,13 +2627,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2551020408163265</v>
+        <v>0.2985074626865671</v>
       </c>
       <c r="C39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D39">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2627,31 +2645,31 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K39">
-        <v>0.05836575875486381</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="L39">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M39">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N39">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39">
-        <v>242</v>
+        <v>548</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2659,13 +2677,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2525773195876289</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C40">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D40">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2677,31 +2695,31 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>145</v>
+        <v>40</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="K40">
-        <v>0.0559254327563249</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="L40">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="M40">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="N40">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O40">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P40" t="b">
         <v>1</v>
       </c>
       <c r="Q40">
-        <v>709</v>
+        <v>688</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -2709,13 +2727,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.25</v>
+        <v>0.2786885245901639</v>
       </c>
       <c r="C41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D41">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2727,31 +2745,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>45</v>
-      </c>
-      <c r="J41" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="K41">
-        <v>0.05263157894736842</v>
-      </c>
-      <c r="L41">
-        <v>17</v>
-      </c>
-      <c r="M41">
-        <v>18</v>
-      </c>
-      <c r="N41">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O41">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q41">
-        <v>306</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -2759,13 +2753,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.2393162393162393</v>
+        <v>0.2758620689655172</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2777,31 +2771,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>89</v>
-      </c>
-      <c r="J42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K42">
-        <v>0.03836317135549872</v>
-      </c>
-      <c r="L42">
-        <v>15</v>
-      </c>
-      <c r="M42">
-        <v>20</v>
-      </c>
-      <c r="N42">
-        <v>0.75</v>
-      </c>
-      <c r="O42">
-        <v>0.25</v>
-      </c>
-      <c r="P42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q42">
-        <v>376</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -2809,49 +2779,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.2103746397694524</v>
+        <v>0.2678571428571428</v>
       </c>
       <c r="C43">
-        <v>73</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="E43">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>274</v>
-      </c>
-      <c r="J43" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="K43">
-        <v>0.03552397868561279</v>
-      </c>
-      <c r="L43">
-        <v>20</v>
-      </c>
-      <c r="M43">
-        <v>22</v>
-      </c>
-      <c r="N43">
-        <v>0.91</v>
-      </c>
-      <c r="O43">
-        <v>0.08999999999999997</v>
-      </c>
-      <c r="P43" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q43">
-        <v>543</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -2859,13 +2805,13 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.1992753623188406</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C44">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D44">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="E44">
         <v>0</v>
@@ -2877,31 +2823,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>221</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="K44">
-        <v>0.02414772727272727</v>
-      </c>
-      <c r="L44">
-        <v>17</v>
-      </c>
-      <c r="M44">
-        <v>18</v>
-      </c>
-      <c r="N44">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="O44">
-        <v>0.06000000000000005</v>
-      </c>
-      <c r="P44" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q44">
-        <v>687</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -2909,25 +2831,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.1962616822429906</v>
+        <v>0.2463768115942029</v>
       </c>
       <c r="C45">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D45">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>86</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -2935,13 +2857,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.189873417721519</v>
+        <v>0.2346938775510204</v>
       </c>
       <c r="C46">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="D46">
-        <v>60</v>
+        <v>23</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2953,7 +2875,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>256</v>
+        <v>75</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -2961,13 +2883,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.1824925816023739</v>
+        <v>0.2319587628865979</v>
       </c>
       <c r="C47">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="D47">
-        <v>123</v>
+        <v>45</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2979,7 +2901,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>551</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -2987,13 +2909,13 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.1785714285714286</v>
+        <v>0.2268041237113402</v>
       </c>
       <c r="C48">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D48">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E48">
         <v>0</v>
@@ -3005,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="H48">
-        <v>115</v>
+        <v>75</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -3013,13 +2935,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.17</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C49">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="D49">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -3031,7 +2953,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>166</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -3039,13 +2961,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.1677215189873418</v>
+        <v>0.1962616822429906</v>
       </c>
       <c r="C50">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="D50">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -3057,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>263</v>
+        <v>172</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3065,25 +2987,25 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.1635514018691589</v>
+        <v>0.1961367013372957</v>
       </c>
       <c r="C51">
-        <v>35</v>
+        <v>132</v>
       </c>
       <c r="D51">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F51">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G51" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H51">
-        <v>179</v>
+        <v>541</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -3091,13 +3013,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1519823788546255</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C52">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D52">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -3109,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>385</v>
+        <v>256</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -3117,13 +3039,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1465968586387434</v>
+        <v>0.18</v>
       </c>
       <c r="C53">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D53">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -3135,7 +3057,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -3143,25 +3065,25 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1428571428571428</v>
+        <v>0.1786743515850144</v>
       </c>
       <c r="C54">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D54">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F54">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H54">
-        <v>150</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -3169,25 +3091,25 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1417322834645669</v>
+        <v>0.1740506329113924</v>
       </c>
       <c r="C55">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D55">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="E55">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="G55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>109</v>
+        <v>261</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -3195,25 +3117,25 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1260162601626016</v>
+        <v>0.1714285714285714</v>
       </c>
       <c r="C56">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D56">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="E56">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G56" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>215</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -3221,13 +3143,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1146496815286624</v>
+        <v>0.154639175257732</v>
       </c>
       <c r="C57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D57">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3239,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>139</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -3247,25 +3169,25 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.112781954887218</v>
+        <v>0.1528662420382166</v>
       </c>
       <c r="C58">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D58">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E58">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F58">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>236</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -3273,13 +3195,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1092896174863388</v>
+        <v>0.1525423728813559</v>
       </c>
       <c r="C59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D59">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -3291,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>163</v>
+        <v>100</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -3299,25 +3221,25 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1016042780748663</v>
+        <v>0.145374449339207</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="D60">
-        <v>21</v>
+        <v>66</v>
       </c>
       <c r="E60">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="G60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>168</v>
+        <v>388</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -3325,13 +3247,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09375</v>
+        <v>0.1388888888888889</v>
       </c>
       <c r="C61">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -3343,7 +3265,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>174</v>
+        <v>93</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -3351,13 +3273,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.08571428571428572</v>
+        <v>0.1230769230769231</v>
       </c>
       <c r="C62">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D62">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -3369,7 +3291,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>160</v>
+        <v>114</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -3377,25 +3299,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.08277404921700224</v>
+        <v>0.1219512195121951</v>
       </c>
       <c r="C63">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D63">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E63">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="F63">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G63" t="b">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>410</v>
+        <v>216</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -3403,25 +3325,25 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.08247422680412371</v>
+        <v>0.1202185792349727</v>
       </c>
       <c r="C64">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D64">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E64">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G64" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>178</v>
+        <v>161</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -3429,25 +3351,25 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.07627118644067797</v>
+        <v>0.1103896103896104</v>
       </c>
       <c r="C65">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D65">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E65">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>327</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -3455,25 +3377,25 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.06611570247933884</v>
+        <v>0.1085714285714286</v>
       </c>
       <c r="C66">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D66">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="E66">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="F66">
-        <v>0.9299999999999999</v>
+        <v>1</v>
       </c>
       <c r="G66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>565</v>
+        <v>156</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -3481,25 +3403,25 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.06575342465753424</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="C67">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D67">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E67">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G67" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H67">
-        <v>341</v>
+        <v>238</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -3507,25 +3429,25 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06071428571428571</v>
+        <v>0.101063829787234</v>
       </c>
       <c r="C68">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D68">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H68">
-        <v>263</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -3533,25 +3455,25 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05844980940279543</v>
+        <v>0.09895833333333333</v>
       </c>
       <c r="C69">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="D69">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="E69">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="G69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>741</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3559,25 +3481,25 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.05714285714285714</v>
+        <v>0.09743589743589744</v>
       </c>
       <c r="C70">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>20</v>
       </c>
       <c r="E70">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="F70">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="G70" t="b">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>297</v>
+        <v>176</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3585,25 +3507,25 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05045871559633028</v>
+        <v>0.09554140127388536</v>
       </c>
       <c r="C71">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D71">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E71">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="F71">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G71" t="b">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>621</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3611,25 +3533,25 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.03981264637002342</v>
+        <v>0.08900523560209424</v>
       </c>
       <c r="C72">
         <v>17</v>
       </c>
       <c r="D72">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E72">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>410</v>
+        <v>174</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3637,25 +3559,285 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.0372960372960373</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C73">
+        <v>15</v>
+      </c>
+      <c r="D73">
         <v>16</v>
       </c>
-      <c r="D73">
-        <v>21</v>
-      </c>
       <c r="E73">
+        <v>0.06</v>
+      </c>
+      <c r="F73">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.08791208791208792</v>
+      </c>
+      <c r="C74">
+        <v>32</v>
+      </c>
+      <c r="D74">
+        <v>33</v>
+      </c>
+      <c r="E74">
+        <v>0.03</v>
+      </c>
+      <c r="F74">
+        <v>0.97</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.08482142857142858</v>
+      </c>
+      <c r="C75">
+        <v>38</v>
+      </c>
+      <c r="D75">
+        <v>39</v>
+      </c>
+      <c r="E75">
+        <v>0.03</v>
+      </c>
+      <c r="F75">
+        <v>0.97</v>
+      </c>
+      <c r="G75" t="b">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.07605633802816901</v>
+      </c>
+      <c r="C76">
+        <v>27</v>
+      </c>
+      <c r="D76">
+        <v>27</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.06942148760330578</v>
+      </c>
+      <c r="C77">
+        <v>42</v>
+      </c>
+      <c r="D77">
+        <v>45</v>
+      </c>
+      <c r="E77">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F77">
+        <v>0.9299999999999999</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.05696202531645569</v>
+      </c>
+      <c r="C78">
+        <v>18</v>
+      </c>
+      <c r="D78">
+        <v>19</v>
+      </c>
+      <c r="E78">
+        <v>0.05</v>
+      </c>
+      <c r="F78">
+        <v>0.95</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.05209656925031766</v>
+      </c>
+      <c r="C79">
+        <v>41</v>
+      </c>
+      <c r="D79">
+        <v>48</v>
+      </c>
+      <c r="E79">
+        <v>0.15</v>
+      </c>
+      <c r="F79">
+        <v>0.85</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.0514018691588785</v>
+      </c>
+      <c r="C80">
+        <v>22</v>
+      </c>
+      <c r="D80">
+        <v>23</v>
+      </c>
+      <c r="E80">
+        <v>0.04</v>
+      </c>
+      <c r="F80">
+        <v>0.96</v>
+      </c>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.04439252336448598</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>25</v>
+      </c>
+      <c r="E81">
         <v>0.24</v>
       </c>
-      <c r="F73">
+      <c r="F81">
         <v>0.76</v>
       </c>
-      <c r="G73" t="b">
-        <v>1</v>
-      </c>
-      <c r="H73">
-        <v>413</v>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.04294478527607362</v>
+      </c>
+      <c r="C82">
+        <v>28</v>
+      </c>
+      <c r="D82">
+        <v>31</v>
+      </c>
+      <c r="E82">
+        <v>0.1</v>
+      </c>
+      <c r="F82">
+        <v>0.9</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.02982107355864811</v>
+      </c>
+      <c r="C83">
+        <v>15</v>
+      </c>
+      <c r="D83">
+        <v>16</v>
+      </c>
+      <c r="E83">
+        <v>0.06</v>
+      </c>
+      <c r="F83">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>488</v>
       </c>
     </row>
   </sheetData>
